--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_4_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_4_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-818654.6919687641</v>
+        <v>-820635.6085491894</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2630451.066553588</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14290745.96615479</v>
+        <v>14299195.17106854</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>68.14130809906142</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>236.5818878005861</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>68.43141783824916</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>80.24181988115424</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>57.99741410329146</v>
       </c>
       <c r="G5" t="n">
-        <v>67.85486512478344</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>52.52527498097923</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>129.6781866221427</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>288.6238257175839</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.78417002079501</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481178</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>104.5805220337184</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>77.72878559814581</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>94.59270453218339</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1579,13 +1579,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>142.1196107411475</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>38.59744043553307</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>81.77268178428244</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.97444673954884</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>20.76378193035811</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>62.89058652596</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>195.9641039448187</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>216.3943965412046</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>221.5236512685914</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2649,10 +2649,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.5381924644487</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.913828367536</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037926</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>206.8064269214864</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965546</v>
+        <v>45.40012322653589</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801227</v>
+        <v>91.23070601801213</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943742</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897923</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752359</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>3.549119087284099</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789577</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415322</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572821</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1560.797780174034</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C2" t="n">
-        <v>1191.835263233623</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>522.4842426204839</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>136.6959900222396</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>2189.908715988822</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1950.937112149846</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>1560.797780174034</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>426.2840617486069</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C4" t="n">
-        <v>257.3478788207</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D4" t="n">
-        <v>257.3478788207</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="E4" t="n">
-        <v>257.3478788207</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>647.076640892137</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>647.076640892137</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>647.076640892137</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>647.076640892137</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>647.076640892137</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>647.076640892137</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>647.076640892137</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y4" t="n">
-        <v>426.2840617486069</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>686.9351304176939</v>
+        <v>1369.416431066817</v>
       </c>
       <c r="C5" t="n">
-        <v>686.9351304176939</v>
+        <v>1369.416431066817</v>
       </c>
       <c r="D5" t="n">
-        <v>686.9351304176939</v>
+        <v>1011.150732460066</v>
       </c>
       <c r="E5" t="n">
-        <v>686.9351304176939</v>
+        <v>1011.150732460066</v>
       </c>
       <c r="F5" t="n">
-        <v>275.9492256280864</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332392</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988821</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1837.140060718707</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>1463.674302457627</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1073.534970481816</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="6">
@@ -4662,7 +4662,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036444</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>257.1154545468206</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>257.1154545468206</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>204.0596212327002</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>369.8327295799423</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1156.179761166175</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177352</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036442</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036442</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224071</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548714</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862884</v>
+        <v>2591.512200075072</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834947</v>
+        <v>2372.877533047135</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834947</v>
+        <v>2119.115747685226</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491376</v>
+        <v>2119.115747685226</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491376</v>
+        <v>2119.115747685226</v>
       </c>
       <c r="X8" t="n">
-        <v>1542.779601230297</v>
+        <v>2119.115747685226</v>
       </c>
       <c r="Y8" t="n">
-        <v>1542.779601230297</v>
+        <v>2119.115747685226</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572643</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417903</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517454</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537798</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477908</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>632.580797810289</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>632.580797810289</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>632.580797810289</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>632.580797810289</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>632.580797810289</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>632.580797810289</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>404.5912469122717</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5912469122717</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>550.2226492899338</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M12" t="n">
-        <v>857.5427825698953</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>395.2468244550147</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D13" t="n">
         <v>245.130185042679</v>
@@ -5197,52 +5197,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241946</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688049</v>
+        <v>259.7851881688061</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799339</v>
+        <v>507.4972331799352</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471167</v>
+        <v>779.063975947118</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974664</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980061</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473452</v>
+        <v>1298.996260473453</v>
       </c>
       <c r="T13" t="n">
-        <v>1155.441098108657</v>
+        <v>1298.996260473453</v>
       </c>
       <c r="U13" t="n">
-        <v>866.312459322215</v>
+        <v>1009.867621687012</v>
       </c>
       <c r="V13" t="n">
-        <v>866.312459322215</v>
+        <v>755.1831334811247</v>
       </c>
       <c r="W13" t="n">
-        <v>576.8952892852544</v>
+        <v>465.7659634441642</v>
       </c>
       <c r="X13" t="n">
-        <v>576.8952892852544</v>
+        <v>465.7659634441642</v>
       </c>
       <c r="Y13" t="n">
-        <v>576.8952892852544</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155894</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
         <v>488.1932370805469</v>
@@ -5276,13 +5276,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>496.665036439558</v>
+        <v>124.46400735882</v>
       </c>
       <c r="C16" t="n">
-        <v>327.7288535116511</v>
+        <v>124.46400735882</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>124.46400735882</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>124.46400735882</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5464,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765186</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W16" t="n">
-        <v>496.665036439558</v>
+        <v>754.8946022306072</v>
       </c>
       <c r="X16" t="n">
-        <v>496.665036439558</v>
+        <v>526.9050513325899</v>
       </c>
       <c r="Y16" t="n">
-        <v>496.665036439558</v>
+        <v>306.1124721890598</v>
       </c>
     </row>
     <row r="17">
@@ -5492,46 +5492,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>624.8682044203586</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>932.1883377003201</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,22 +5674,22 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
@@ -5701,22 +5701,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247857</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>943.1622247234138</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V19" t="n">
-        <v>943.1622247234138</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W19" t="n">
-        <v>653.7450546864533</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="X19" t="n">
-        <v>425.7555037884359</v>
+        <v>611.1927268121082</v>
       </c>
       <c r="Y19" t="n">
-        <v>425.7555037884359</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5792,10 +5792,10 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141287</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1646.274692278279</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1925.814757496976</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2446.115379232724</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>672.4909068465488</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C22" t="n">
-        <v>503.5547239186419</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D22" t="n">
-        <v>503.5547239186419</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1189.897627781527</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>1189.897627781527</v>
+        <v>755.1831334811259</v>
       </c>
       <c r="W22" t="n">
-        <v>900.4804577445661</v>
+        <v>465.7659634441653</v>
       </c>
       <c r="X22" t="n">
-        <v>672.4909068465488</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y22" t="n">
-        <v>672.4909068465488</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>452.0983189327497</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>698.8634468392138</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M24" t="n">
-        <v>1006.183580119176</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.046207783208</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O24" t="n">
-        <v>2005.509969085868</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>542.136771952925</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="C25" t="n">
-        <v>542.136771952925</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1280.336072031433</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>1280.336072031433</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V25" t="n">
-        <v>1280.336072031433</v>
+        <v>1275.155006650235</v>
       </c>
       <c r="W25" t="n">
-        <v>990.9189019944725</v>
+        <v>985.737836613274</v>
       </c>
       <c r="X25" t="n">
-        <v>762.9293510964551</v>
+        <v>985.737836613274</v>
       </c>
       <c r="Y25" t="n">
-        <v>542.136771952925</v>
+        <v>985.737836613274</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6288,37 +6288,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256437</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701569</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766216</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395483</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059516</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278214</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>388.5827690683511</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>388.5827690683511</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123423</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123424</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123424</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123424</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799374</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119731</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035283</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.921157035283</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>898.7925182488415</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>898.7925182488416</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>609.375348211881</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>609.3753482118811</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>388.582769068351</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>603.9720111083047</v>
+        <v>439.5324299542177</v>
       </c>
       <c r="C31" t="n">
-        <v>490.7966934617684</v>
+        <v>326.3571123076815</v>
       </c>
       <c r="D31" t="n">
-        <v>396.4409193308034</v>
+        <v>280.4984019778478</v>
       </c>
       <c r="E31" t="n">
-        <v>304.2886910297807</v>
+        <v>188.3461736768255</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297807</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309719</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.251007986467</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933497</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667502</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962043</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096192</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1733.067711321157</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1499.699937816086</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1300.77631489157</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1067.12001013598</v>
+        <v>902.6804289818926</v>
       </c>
       <c r="X31" t="n">
-        <v>894.8913245193332</v>
+        <v>730.451743365246</v>
       </c>
       <c r="Y31" t="n">
-        <v>729.8596106571738</v>
+        <v>565.4200295030867</v>
       </c>
     </row>
     <row r="32">
@@ -6692,37 +6692,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6835,19 +6835,19 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6874,19 +6874,19 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6935,19 +6935,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7151,10 +7151,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,19 +7172,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M39" t="n">
-        <v>841.8631140141288</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N39" t="n">
-        <v>1443.347833878256</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7391,52 +7391,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2103.010087623274</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7597,7 +7597,7 @@
         <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025263</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2375.872413702068</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2006.909896761656</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.644198154905</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.855945556661</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>851.8700407670535</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>436.7975906120499</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>139.2139902208172</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>453.5018714396643</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>787.3212451295108</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1651.840060782866</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2185.37196545479</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3165.124237681437</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3693.990007997929</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4407.345095444874</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4655.631457200557</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4779.707779431612</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4669.417110958707</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4463.439363342929</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.908886616766</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3878.845999273196</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3526.077344003081</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3152.611585742001</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.47225376619</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>972.2488295092107</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>797.7958002280837</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>648.8613905668326</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>489.623935561377</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>343.0893775882621</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>206.7262774208804</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>116.2243830587479</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>190.8943609509032</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>429.1585599312504</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8567202439158</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1243.133045466232</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1716.656089020686</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.617368438741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2438.116959914844</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2595.758517561444</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>2595.614164153959</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2466.176277647439</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2273.533277325294</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.46543045971</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1810.313322227967</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1556.075965499766</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1348.224465294233</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1140.464166529279</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.1712248333966</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>668.684674853563</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>566.0176683893006</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>465.5542077549808</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>366.1138932051438</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>245.860689527936</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0931356938672</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>188.845109159628</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>439.337677360911</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>802.4028610618138</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1193.065291913769</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1580.979053872041</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1926.814038044861</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2205.926923730927</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2330.042605135848</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>2287.661780841449</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>2143.425529616349</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1969.108547133948</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.455313207665</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1520.220457949851</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1278.252920860964</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>1097.71300291102</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>924.3700567155631</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516238</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>15.83804904622878</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>414.5002179180844</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>91.23759968302147</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>80.50021372615268</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>165.9802687929762</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987297522</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>414.5002179180794</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,16 +10437,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>295.3773510571274</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>392.1113620226438</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>223.6742649934479</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,13 +10911,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>274.3657496970649</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>230.7151863772039</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,25 +11297,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>26.15484791631843</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>79.42795031724172</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>179.9872129165617</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>66.84279123392992</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>118.4466012833824</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>265.4735704682192</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>162.8190688630771</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24127,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>90.27324845375867</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709125</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,22 +24415,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>5.153164517184648</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>30.61399205523662</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>9.077280553763604</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,16 +24655,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>79.4309254770908</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>48.01209316311942</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437434</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897908</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571509</v>
+        <v>55.21598883571494</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>162.7951853425482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-1.115552095143357e-12</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1201602.931074854</v>
+        <v>1201602.931074853</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1201602.931074854</v>
+        <v>1201602.931074853</v>
       </c>
     </row>
     <row r="10">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1245447.117508034</v>
+        <v>1260078.406658152</v>
       </c>
     </row>
   </sheetData>
@@ -26332,10 +26332,10 @@
         <v>195514.5298688544</v>
       </c>
       <c r="I2" t="n">
-        <v>195514.5298688545</v>
+        <v>195514.5298688544</v>
       </c>
       <c r="J2" t="n">
-        <v>195514.5298688545</v>
+        <v>195514.5298688544</v>
       </c>
       <c r="K2" t="n">
         <v>203411.0686726353</v>
@@ -26353,7 +26353,7 @@
         <v>205260.4424660711</v>
       </c>
       <c r="P2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660711</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925939</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028444</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086704</v>
+        <v>10342.9068008669</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>199883.8198755739</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26421,10 +26421,10 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218263</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.5455523023</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26433,31 +26433,31 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230239</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230225</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="K4" t="n">
-        <v>47468.16806649881</v>
+        <v>47468.16806649885</v>
       </c>
       <c r="L4" t="n">
+        <v>51722.33279362281</v>
+      </c>
+      <c r="M4" t="n">
         <v>51722.33279362283</v>
       </c>
-      <c r="M4" t="n">
-        <v>51722.33279362285</v>
-      </c>
       <c r="N4" t="n">
-        <v>51722.33279362283</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="O4" t="n">
+        <v>51722.33279362282</v>
+      </c>
+      <c r="P4" t="n">
         <v>51722.3327936228</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30134.53761950705</v>
       </c>
     </row>
     <row r="5">
@@ -26473,31 +26473,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26506,10 +26506,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>101591.2743431396</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-642057.2921337093</v>
       </c>
       <c r="C6" t="n">
-        <v>-52089.4129191649</v>
+        <v>-52089.41291916484</v>
       </c>
       <c r="D6" t="n">
-        <v>-52089.41291916472</v>
+        <v>-52089.41291916487</v>
       </c>
       <c r="E6" t="n">
-        <v>-450936.3781090608</v>
+        <v>-451033.8372350329</v>
       </c>
       <c r="F6" t="n">
-        <v>74223.65836783541</v>
+        <v>74126.19924186329</v>
       </c>
       <c r="G6" t="n">
-        <v>74223.65836783549</v>
+        <v>74126.19924186323</v>
       </c>
       <c r="H6" t="n">
-        <v>74223.65836783544</v>
+        <v>74126.19924186329</v>
       </c>
       <c r="I6" t="n">
-        <v>74223.65836783533</v>
+        <v>74126.19924186329</v>
       </c>
       <c r="J6" t="n">
-        <v>-102199.5608247584</v>
+        <v>-102297.0199507297</v>
       </c>
       <c r="K6" t="n">
-        <v>15152.08677306931</v>
+        <v>15133.5930351337</v>
       </c>
       <c r="L6" t="n">
-        <v>45480.09705155579</v>
+        <v>45480.09705155603</v>
       </c>
       <c r="M6" t="n">
-        <v>-78978.01138141431</v>
+        <v>-78978.01138141427</v>
       </c>
       <c r="N6" t="n">
-        <v>55823.00385242286</v>
+        <v>55823.00385242292</v>
       </c>
       <c r="O6" t="n">
-        <v>55823.0038524229</v>
+        <v>55823.00385242292</v>
       </c>
       <c r="P6" t="n">
-        <v>-126349.1893721499</v>
+        <v>11660.39854957726</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26741,43 +26741,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541017</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108379</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>34.04650311750879</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,13 +26978,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-3.859592862835722e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>259.3942951391981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>338.73473764265</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27427,7 +27427,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>133.1492128778829</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>78.00254480832001</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>66.42337209900361</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>348.87863163842</v>
       </c>
       <c r="G5" t="n">
-        <v>345.9293048960116</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>199.6123683428488</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>96.03146876689448</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>76.64906605342367</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>69.83519077525318</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>89.51803550048203</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>52.0724874479745</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28269,10 +28269,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.076472244676552e-12</v>
       </c>
       <c r="K13" t="n">
-        <v>-2.302158463862725e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554462</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.3907153663379</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473548</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141103</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839647</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078605</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644437</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813574</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175836</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383793</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32640,10 +32640,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770685</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279175</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873142</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>265.095754002253</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556444</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299082</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35732,16 +35732,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>724.9245949685507</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>340.4953046390457</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>168.5132465112268</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>316.5557073809155</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768301</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349123</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490697</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>724.9245949685464</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315253</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556577</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056041</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206033</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>487.1420318003117</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412242</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084854</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341605</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491597</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403576</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043165</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>628.5719244551402</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414415</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37321,13 +37321,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>674.475064263752</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37558,13 +37558,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>374.2497035813871</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>607.5603230950777</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>437.8086013087286</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>534.2078488045375</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
